--- a/Tables/sens_cor_table.xlsx
+++ b/Tables/sens_cor_table.xlsx
@@ -401,22 +401,22 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.075</v>
+        <v>0.073</v>
       </c>
       <c r="C2">
-        <v>0.076</v>
+        <v>0.077</v>
       </c>
       <c r="D2">
-        <v>0.987</v>
+        <v>0.946</v>
       </c>
       <c r="E2">
-        <v>0.345</v>
+        <v>0.364</v>
       </c>
       <c r="F2">
-        <v>-0.092</v>
+        <v>-0.097</v>
       </c>
       <c r="G2">
-        <v>0.242</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="3">
@@ -429,19 +429,19 @@
         <v>0.128</v>
       </c>
       <c r="C3">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="D3">
-        <v>2.31</v>
+        <v>2.268</v>
       </c>
       <c r="E3">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="F3">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="G3">
-        <v>0.243</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="4">
